--- a/src/test/resources/ClientData.xlsx
+++ b/src/test/resources/ClientData.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sniha\eclipse-workspace\DifferentSites\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2884214B-66CB-420F-BEAE-832A8AA29831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="4860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,9 +45,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
     <t>Digital Marketing Agency Vtechys</t>
   </si>
   <si>
@@ -73,13 +75,16 @@
     <t>Landing Page Url 4</t>
   </si>
   <si>
-    <t>Microsoft Edge</t>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>microsoft edge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,23 +417,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="7" width="31.7109375" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,16 +444,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -457,27 +462,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -486,27 +491,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -515,27 +520,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -546,8 +551,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D4" r:id="rId2" display="https://vtechys.com/about-us/"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{26DDB61A-50DB-41A1-BD07-94EA1DBCFCC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/test/resources/ClientData.xlsx
+++ b/src/test/resources/ClientData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sniha\eclipse-workspace\DifferentSites\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2884214B-66CB-420F-BEAE-832A8AA29831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0837F6B-34A7-4FE7-92C4-22BE8D529CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Browser Type</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Landing Page Url 4</t>
-  </si>
-  <si>
-    <t>firefox</t>
   </si>
   <si>
     <t>microsoft edge</t>
@@ -418,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +461,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -493,7 +490,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -517,44 +514,14 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{26DDB61A-50DB-41A1-BD07-94EA1DBCFCC3}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>